--- a/Forecasts/Alameda.xlsx
+++ b/Forecasts/Alameda.xlsx
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-03-18 09:28:15"</t>
+    <t xml:space="preserve">[1] "2021-03-18 10:25:57"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Alameda.xlsx
+++ b/Forecasts/Alameda.xlsx
@@ -7478,7 +7478,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-04-20 09:28:04"</t>
+    <t xml:space="preserve">[1] "2021-04-20 11:48:14"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
